--- a/pre_project/text/receipts.xlsx
+++ b/pre_project/text/receipts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="191">
   <si>
     <t>печени яйца със спанак</t>
   </si>
@@ -331,6 +331,264 @@
   </si>
   <si>
     <t>Зеленчуците и гъбите се почистват, измиват и нарязват на ситно. Запържват се леко или задушават в олиото. Посоляват се и се поръсват с черен пипер на вкус. Сервират се с варено месо или риба</t>
+  </si>
+  <si>
+    <t>Сос с копър</t>
+  </si>
+  <si>
+    <t>От зехтина и брашното се прави светла запръжка. Прибавя се счуканият чесън. Постепенно се разрежда д бульон и се вари до получаването на гладък сос. Прибавят се ситно нарязан копър, разбитият в 1 с. л. Студен бульон и малко оцет и мед. Подправя се със сол и черен пипер на вкус. Сервира се с варено месо.</t>
+  </si>
+  <si>
+    <t>жълтък</t>
+  </si>
+  <si>
+    <t>копър</t>
+  </si>
+  <si>
+    <t>месен бульон</t>
+  </si>
+  <si>
+    <t>Постни ястия</t>
+  </si>
+  <si>
+    <t>Зелен пилаф с подправки</t>
+  </si>
+  <si>
+    <t>карамфил</t>
+  </si>
+  <si>
+    <t>кардамон</t>
+  </si>
+  <si>
+    <t>см</t>
+  </si>
+  <si>
+    <t>канела</t>
+  </si>
+  <si>
+    <t>пръчка</t>
+  </si>
+  <si>
+    <t>куркума</t>
+  </si>
+  <si>
+    <t>ориз</t>
+  </si>
+  <si>
+    <t>мл</t>
+  </si>
+  <si>
+    <t>зеленчуков бульон</t>
+  </si>
+  <si>
+    <t>дълъг</t>
+  </si>
+  <si>
+    <t>шепи</t>
+  </si>
+  <si>
+    <t>кресон</t>
+  </si>
+  <si>
+    <t>препечени</t>
+  </si>
+  <si>
+    <t>бадеми</t>
+  </si>
+  <si>
+    <t>стафиди</t>
+  </si>
+  <si>
+    <t>Лукът се задушава в сгорещеното олио до омекване – около 6-8 минути. Прибавят се чесънът, кардамонът, канелата, карамфилчетата и черният пипер с турмерика. Остовя се на огъня 2 минути. Слага се оризът, разбърква се и се оставя на огъня 1 минута, след което се изсипва бульонът. Кипва се и огънят се намалява. Захлупва се и се вари 15 минути. Огънят се изключва, а оризът се оставя захлупен 5 минути. Разбърква се леко и се връща на слаб огън, като се прибавят подправките, лукът, спанакът, бадемите и стафидите. Посолява се на вкус и се сервира горещ.</t>
+  </si>
+  <si>
+    <t>ястия с риба</t>
+  </si>
+  <si>
+    <t>Риба с подправки и къри</t>
+  </si>
+  <si>
+    <t>филе</t>
+  </si>
+  <si>
+    <t>скилидки</t>
+  </si>
+  <si>
+    <t>на прах</t>
+  </si>
+  <si>
+    <t>мляко</t>
+  </si>
+  <si>
+    <t>Лукът и чесънът се обелват, измиват и нарязват на тънки полумесеци. Доматите се измиват, разрязват се на две, почистват се от семките и се нарязват на ситно. Рибното филе се нарязва на кубчета по 2,5 см. И се посолява леко. Запържва се около 3 минути в незагарящ тиган, намазан с малко зехтин и се изважда. Сипва се още малко зехтин и се запържва лукът до омекване, след което се прибавят чесънът и подправките и се пържи още 5 минути. Слагат се доматите и спанакът и се пържи, докато спанакът поомекне. Посолява се, поръсва се с черен пипер и се прибавя киселото мчляко. Кипва се и се оставя на слаб огън 5 минути. Рибата се връща в соса и се загрява. Сервира се веднага с кафяв ориз.</t>
+  </si>
+  <si>
+    <t>Ястия с птици</t>
+  </si>
+  <si>
+    <t>Пиле със зеленчуци</t>
+  </si>
+  <si>
+    <t>пилешки гърди</t>
+  </si>
+  <si>
+    <t>обезкостено</t>
+  </si>
+  <si>
+    <t>моркови</t>
+  </si>
+  <si>
+    <t>картофи</t>
+  </si>
+  <si>
+    <t>дребни</t>
+  </si>
+  <si>
+    <t>счукан</t>
+  </si>
+  <si>
+    <t>пилешки бульон</t>
+  </si>
+  <si>
+    <t>доматено пюре</t>
+  </si>
+  <si>
+    <t>гр.</t>
+  </si>
+  <si>
+    <t>зелен фасул</t>
+  </si>
+  <si>
+    <t>нарязан</t>
+  </si>
+  <si>
+    <t>Лукът се почиства, измива се и се нарязва на колелца. Картофите се обелват, измиват се и се нарязват на половинки. Пилешкото месо се нарязва на хапки и се запържва в сгорещеното олио за 5 минути от всички страни. Прибавят се морковите, лукът, целината и картофите и се пържи още 5 минути. Налива се бульонът, прибавя се доматеното пюре и се подправя със сол и черен пипер на вкус. Кипва се, захлупва се, огънят се намалява и се вари още 30 минути. Прибавят се гъбите и зеленит фасул и се вари още 15 минути. Сервира се горещо.</t>
+  </si>
+  <si>
+    <t>ястия с месо</t>
+  </si>
+  <si>
+    <t>Пикантно телешко</t>
+  </si>
+  <si>
+    <t>телешко месо</t>
+  </si>
+  <si>
+    <t>котлети</t>
+  </si>
+  <si>
+    <t>безсолен</t>
+  </si>
+  <si>
+    <t>лимонова кора</t>
+  </si>
+  <si>
+    <t>настъргана</t>
+  </si>
+  <si>
+    <t>Брашното, солта и черният пипер се слагат в пластмасова торбичка. Прибавя се месото и се разклаща добре, за да се оваля в сместа. 1 чаена лъжичка зехтин се загрява в незагарящ тиган на умерен огън и се запържва половината месо по 2 минути от всяка страна, като се обръща веднъж. Изважда се и се оставя настрана. Прибавя се втората лъжичка зехтин и се запържва останалото месо и също се изважда. В същия тиган на умерен огън се запържва половината чесън около 30 секунди. Прибавят се буьонът и лимоновият сок и се оставя на огъня 3-4 минути. В малък съд се смесват магданозът, лимоновата кора и останалият чесън. Прибавят се към соса. Месото се връща   в тигана и се затопля, като се обръща веднъж, за да се затопли напълно. Сервира се веднага.</t>
+  </si>
+  <si>
+    <t>Свинско с ябълки</t>
+  </si>
+  <si>
+    <t>Грилът се загрява предварително. Смесват се червеният пипер, изсушената мащерка, сол и черен пипер на вкус и ¼ чаена лъжичка бахар. Месото се поръсва със сместа от двете страни и се пече на грила по 5 минути от всяка страна до кафяв цвят. Ябълките се обелват и се нарязват на малки парчета. Слагат се в голям незагарящ тиган заедно с нарязания лук, ябълковия сок, оцета и останалия бахар. Кипва се, огънят се намалява до умерен и се вари като се бърка от време на време, до омекване на ябълките /10-12 минути/. Месото се слага в чиниите за сервиране и се залива със соса с ябълките. Гарнира се с нарязаната мащерка.</t>
+  </si>
+  <si>
+    <t>мащерка</t>
+  </si>
+  <si>
+    <t>сушена</t>
+  </si>
+  <si>
+    <t>к.л.</t>
+  </si>
+  <si>
+    <t>бахар</t>
+  </si>
+  <si>
+    <t>свинско месо</t>
+  </si>
+  <si>
+    <t>пържоли</t>
+  </si>
+  <si>
+    <t>ябълки</t>
+  </si>
+  <si>
+    <t>ябълков сок</t>
+  </si>
+  <si>
+    <t>подсладен</t>
+  </si>
+  <si>
+    <t>ябълков оцет</t>
+  </si>
+  <si>
+    <t>тестени изделия и сладкиши</t>
+  </si>
+  <si>
+    <t>Хляб със стафиди</t>
+  </si>
+  <si>
+    <t>Стафидите се измиват и се слагат в подходяща купа. Върху тях се изсипват чаят, медът и се оставят да престоят около 2 часа. След това се прибавят яйцата. Брашното се омесва с индийското орехче и содата и също се прибавя към стафидите. Разбърква се до получаването на хомогенно тесто и се прехвърля в намаразана със зехтин и поръсена с брашно тавичка или правоъгълна форма. Пече се около час в предварително загрята до 180 градуса фурна. Изважда се, охлажда се леко и се сервира веднага.</t>
+  </si>
+  <si>
+    <t>чай</t>
+  </si>
+  <si>
+    <t>силен</t>
+  </si>
+  <si>
+    <t>леко разбити</t>
+  </si>
+  <si>
+    <t>сода бикарбонат</t>
+  </si>
+  <si>
+    <t>за формата</t>
+  </si>
+  <si>
+    <t>Кайсиите се накисват в 500 мл вода да се отпуснат, след което се варят на слаб огън до омекване. Прибавят се портокаловата кора и 2 с. л. Сок. Охлажда се леко и се подслажда. Оставят се настрана 4-6 кайсии, а останалите се смачкват на пюре, което се разпределя в отделни чаши за сервиране. Изварата, киселото мляко, останалият портокалов сок и подстладителят се смесват и се разбъркват добре. Разпределят се върху кайсиевото пюре. Отгоре се слагат отделените кайсии и десертът се охлажда преди сервиране.</t>
+  </si>
+  <si>
+    <t>турски десерт с изсушени кайсии</t>
+  </si>
+  <si>
+    <t>сушени кайсии</t>
+  </si>
+  <si>
+    <t>портокал</t>
+  </si>
+  <si>
+    <t>подсладител</t>
+  </si>
+  <si>
+    <t>извара</t>
+  </si>
+  <si>
+    <t>обезсолена</t>
+  </si>
+  <si>
+    <t>напитки</t>
+  </si>
+  <si>
+    <t>Ябълков сок с подправки</t>
+  </si>
+  <si>
+    <t>Лимонът се набучва с карамфилчета. Медът се слага в тенджера, прибавят се канелата и кардамонът. Сипва се ябълковият сок и се пуска лимонът. Захлупва се и се загрява много бавно около 1 час. Бърка се от време на време, като не се позволява да заври. Преди сервиране се охлажда.</t>
+  </si>
+  <si>
+    <t>лимон</t>
+  </si>
+  <si>
+    <t>Пикантна шоколадова напитка</t>
+  </si>
+  <si>
+    <t>Шоколадът се натрошава на парчета. Млякото се поръсва с бахар и се прибавя натрошеният шоколад. Загрява се до кипване, като се бърка през цялото време. Канелата се слага в чашата за сервиране и се залива с млякото. Гарнира се с разбитата сметана.</t>
+  </si>
+  <si>
+    <t>натурален шоколад</t>
   </si>
 </sst>
 </file>
@@ -340,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +606,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -394,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -410,6 +675,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -711,16 +985,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -2233,7 +2505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="5">
         <v>200</v>
@@ -2245,7 +2517,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="5">
         <v>1</v>
@@ -2257,18 +2529,1259 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="E83" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="E84" s="13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="11">
+        <v>2</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5">
+        <v>30</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="E88" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="E89" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="E90" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="E92" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="E93" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="E94" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
+        <v>225</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="1">
+        <v>500</v>
+      </c>
+      <c r="D104" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="5">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
+      <c r="E112" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="1">
+        <v>700</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="E114" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="C116" s="1">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="C117" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="C118" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="C120" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="C121" s="1">
+        <v>300</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="C122" s="1">
+        <v>225</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="E123" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="C124" s="1">
+        <v>150</v>
+      </c>
+      <c r="D124" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="E125" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F126" t="s">
+        <v>138</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="1">
+        <v>225</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
+        <v>350</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C133" s="1">
+        <v>600</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C135" s="1">
+        <v>175</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C136" s="1">
+        <v>100</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E137" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="E138" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C140" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142" s="1">
+        <v>450</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="1">
+        <v>100</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F143" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F146" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="8">
+        <v>2</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C150" s="1">
+        <v>4</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C151" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C152" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F153" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C154" s="1">
+        <v>800</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="1">
+        <v>500</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="1">
+        <v>100</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C157" s="1">
+        <v>100</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F157" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+      <c r="C158" s="8">
+        <v>2</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="11">
+        <v>225</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="5">
+        <v>75</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" s="17"/>
+    </row>
+    <row r="161" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="5">
+        <v>300</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="5">
+        <v>2</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="5">
+        <v>275</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="5">
+        <v>2</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="E166" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
+      <c r="E167" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168" s="11">
+        <v>250</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="5">
+        <v>1</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G169" s="17"/>
+    </row>
+    <row r="170" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="E170" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="C171" s="5">
+        <v>60</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="7"/>
+      <c r="C172" s="8">
+        <v>85</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" s="11">
+        <v>1</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="5">
+        <v>12</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="5">
+        <v>4</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="5">
+        <v>1</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="C177" s="5">
+        <v>3</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="7"/>
+      <c r="C178" s="8">
+        <v>1150</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" s="1">
+        <v>600</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C181" s="1">
+        <v>100</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C183" s="1">
+        <v>100</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/pre_project/text/receipts.xlsx
+++ b/pre_project/text/receipts.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -987,7 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
